--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BAB3FD-D75C-43D6-B90E-6B0867AC76D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C8AD4D-BF06-4A63-B327-3785529C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="210">
   <si>
     <t>seoul</t>
   </si>
@@ -681,6 +681,31 @@
   <si>
     <t>가격아주 저렴, 2명 1대 20만원에 배차했는데 깔끔하고 친절하게 진행함</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5652-2405</t>
+  </si>
+  <si>
+    <t>서울85자5893</t>
+  </si>
+  <si>
+    <t>박래정</t>
+  </si>
+  <si>
+    <t>후기 항상 좋게 달림, 금액도 안물어봄, 친절함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산90자2434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이상봉 </t>
+  </si>
+  <si>
+    <t>010-4577-0688</t>
+  </si>
+  <si>
+    <t>아주 친절 좋은 후기 항상 받음/ 1톤 1대 작은 반포장만함</t>
   </si>
 </sst>
 </file>
@@ -775,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,22 +811,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2202,7 +2221,7 @@
       <c r="G33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -2225,7 +2244,7 @@
       <c r="D34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2234,7 +2253,7 @@
       <c r="G34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="4">
         <v>2</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -2257,7 +2276,7 @@
       <c r="D35" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2266,7 +2285,7 @@
       <c r="G35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -2289,7 +2308,7 @@
       <c r="D36" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2298,7 +2317,7 @@
       <c r="G36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -2321,7 +2340,7 @@
       <c r="D37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2330,7 +2349,7 @@
       <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -2353,7 +2372,7 @@
       <c r="D38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -2362,7 +2381,7 @@
       <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -2385,7 +2404,7 @@
       <c r="D39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2394,7 +2413,7 @@
       <c r="G39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -2417,10 +2436,10 @@
       <c r="D40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="8">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2449,7 +2468,7 @@
       <c r="D41" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -2481,7 +2500,7 @@
       <c r="D42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="4">
         <v>1.4</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -2565,18 +2584,73 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C8AD4D-BF06-4A63-B327-3785529C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C71FE-1341-4055-8F2A-E35DEA693E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,10 +252,6 @@
     <t>강석칠</t>
   </si>
   <si>
-    <t>010-8549-4226</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>윙바디임, 깔끔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -706,6 +702,10 @@
   </si>
   <si>
     <t>아주 친절 좋은 후기 항상 받음/ 1톤 1대 작은 반포장만함</t>
+  </si>
+  <si>
+    <t>010-3718-4007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -1304,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>42</v>
@@ -1400,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>43</v>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>50</v>
@@ -1526,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
@@ -1652,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
@@ -1660,13 +1660,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1692,13 +1692,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1724,19 +1724,19 @@
         <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>17</v>
@@ -1748,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1756,13 +1756,13 @@
         <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1820,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1852,13 +1852,13 @@
         <v>36</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -1876,21 +1876,21 @@
         <v>21</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="E23" s="4">
         <v>1.4</v>
@@ -1908,21 +1908,21 @@
         <v>21</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1940,7 +1940,7 @@
         <v>21</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1948,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1980,13 +1980,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2012,13 +2012,13 @@
         <v>51</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2036,21 +2036,21 @@
         <v>21</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -2068,21 +2068,21 @@
         <v>21</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -2097,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2108,13 +2108,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E30" s="4">
         <v>1.4</v>
@@ -2129,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2172,13 +2172,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2193,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2204,13 +2204,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2236,13 +2236,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>21</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2268,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>56</v>
@@ -2292,7 +2292,7 @@
         <v>21</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>28</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2364,13 +2364,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>21</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2396,13 +2396,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2420,27 +2420,27 @@
         <v>20</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>56</v>
@@ -2452,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2492,13 +2492,13 @@
         <v>36</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E42" s="4">
         <v>1.4</v>
@@ -2516,7 +2516,7 @@
         <v>21</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2524,10 +2524,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>18</v>
@@ -2548,18 +2548,18 @@
         <v>20</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>18</v>
@@ -2580,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2588,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -2612,21 +2612,21 @@
         <v>20</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
         <v>207</v>
       </c>
-      <c r="C46" t="s">
-        <v>208</v>
-      </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C71FE-1341-4055-8F2A-E35DEA693E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526CC05-1964-4675-920D-17FA42318B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="218">
   <si>
     <t>seoul</t>
   </si>
@@ -705,6 +705,32 @@
   </si>
   <si>
     <t>010-3718-4007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울89자4659</t>
+  </si>
+  <si>
+    <t>조진태</t>
+  </si>
+  <si>
+    <t>010-4502-2627</t>
+  </si>
+  <si>
+    <t>무탈하게 끝남 부산쪽 자주다님 (부산 2대1 간단한 완포 35에함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산90자8440</t>
+  </si>
+  <si>
+    <t>송기헌</t>
+  </si>
+  <si>
+    <t>010-3869-1799</t>
+  </si>
+  <si>
+    <t>이모가 개쌈 부산-서울 총 10만원에 부인이 이모해줌. 문제없이 끝남</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2649,6 +2675,70 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526CC05-1964-4675-920D-17FA42318B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF52250-4E36-42ED-9727-26E9DF6A03A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>seoul</t>
   </si>
@@ -731,6 +731,10 @@
   </si>
   <si>
     <t>이모가 개쌈 부산-서울 총 10만원에 부인이 이모해줌. 문제없이 끝남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 함, 사후처리해줌(10내줌)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1545,9 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1653,9 @@
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF52250-4E36-42ED-9727-26E9DF6A03A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF8B7B4-562E-4C4F-99DA-CE3276B8C9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="225">
   <si>
     <t>seoul</t>
   </si>
@@ -735,6 +735,25 @@
   </si>
   <si>
     <t>잘 함, 사후처리해줌(10내줌)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeonbuk</t>
+  </si>
+  <si>
+    <t>jeonnam</t>
+  </si>
+  <si>
+    <t>gyeongbuk</t>
+  </si>
+  <si>
+    <t>gangwon</t>
+  </si>
+  <si>
+    <t>jeju</t>
+  </si>
+  <si>
+    <t>아직 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1157,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP49"/>
+  <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2745,8 +2764,53 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
     </row>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF8B7B4-562E-4C4F-99DA-CE3276B8C9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A994DED-166D-432E-B4E8-8847323CF417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="225">
   <si>
     <t>seoul</t>
   </si>
@@ -1176,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2789,16 +2789,16 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>221</v>
+      <c r="A52" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B52" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>222</v>
+      <c r="A53" t="s">
+        <v>223</v>
       </c>
       <c r="B53" t="s">
         <v>224</v>
@@ -2806,11 +2806,6 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>23</v>
       </c>
     </row>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A994DED-166D-432E-B4E8-8847323CF417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6096E-3940-4FE2-BA70-B3DD02AFBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="237">
   <si>
     <t>seoul</t>
   </si>
@@ -755,13 +755,51 @@
   <si>
     <t>아직 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5414-0932</t>
+  </si>
+  <si>
+    <t>마승룡</t>
+  </si>
+  <si>
+    <t>서울84자5797</t>
+  </si>
+  <si>
+    <t>동생이랑 자주 같이 다님 반포장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임태식</t>
+  </si>
+  <si>
+    <t>010-4601-5522</t>
+  </si>
+  <si>
+    <t>경기93자3653</t>
+  </si>
+  <si>
+    <t>친절함, 광주 전남쪽 자주감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대평</t>
+  </si>
+  <si>
+    <t>010-9166-3742</t>
+  </si>
+  <si>
+    <t>서울91자8130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다리아파서 계단은 가급적 피함, 근데 컴플레인없음 일잘함 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +833,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -849,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -861,16 +908,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,34 +1247,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2"/>
@@ -1488,10 +1538,10 @@
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1520,7 +1570,7 @@
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1638,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>61</v>
@@ -1712,13 +1762,13 @@
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="4">
@@ -1736,7 +1786,7 @@
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1744,13 +1794,13 @@
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="4">
@@ -1768,7 +1818,7 @@
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1776,13 +1826,13 @@
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="4">
@@ -1800,7 +1850,7 @@
       <c r="I18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1808,13 +1858,13 @@
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="4">
@@ -1832,7 +1882,7 @@
       <c r="I19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1840,13 +1890,13 @@
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="4">
@@ -1864,7 +1914,7 @@
       <c r="I20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1872,13 +1922,13 @@
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="4">
@@ -1896,7 +1946,7 @@
       <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1904,13 +1954,13 @@
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="4">
@@ -1928,7 +1978,7 @@
       <c r="I22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1936,13 +1986,13 @@
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="4">
@@ -1960,7 +2010,7 @@
       <c r="I23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1968,13 +2018,13 @@
       <c r="A24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="4">
@@ -1992,7 +2042,7 @@
       <c r="I24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2000,13 +2050,13 @@
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E25" s="4">
@@ -2024,7 +2074,7 @@
       <c r="I25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2032,13 +2082,13 @@
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="4">
@@ -2064,13 +2114,13 @@
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="4">
@@ -2088,7 +2138,7 @@
       <c r="I27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2096,13 +2146,13 @@
       <c r="A28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E28" s="4">
@@ -2120,7 +2170,7 @@
       <c r="I28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2128,13 +2178,13 @@
       <c r="A29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E29" s="4">
@@ -2152,7 +2202,7 @@
       <c r="I29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2160,13 +2210,13 @@
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E30" s="4">
@@ -2184,7 +2234,7 @@
       <c r="I30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2192,13 +2242,13 @@
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="4">
@@ -2216,7 +2266,7 @@
       <c r="I31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2224,13 +2274,13 @@
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E32" s="4">
@@ -2248,7 +2298,7 @@
       <c r="I32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2256,13 +2306,13 @@
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E33" s="4">
@@ -2280,7 +2330,7 @@
       <c r="I33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2288,13 +2338,13 @@
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="4">
@@ -2312,7 +2362,7 @@
       <c r="I34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2320,13 +2370,13 @@
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E35" s="4">
@@ -2344,7 +2394,7 @@
       <c r="I35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2352,13 +2402,13 @@
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="4">
@@ -2376,7 +2426,7 @@
       <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2387,10 +2437,10 @@
       <c r="B37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="4">
@@ -2408,7 +2458,7 @@
       <c r="I37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2416,13 +2466,13 @@
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E38" s="4">
@@ -2440,7 +2490,7 @@
       <c r="I38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2448,13 +2498,13 @@
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E39" s="4">
@@ -2472,7 +2522,7 @@
       <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2480,19 +2530,19 @@
       <c r="A40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2504,7 +2554,7 @@
       <c r="I40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2512,13 +2562,13 @@
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E41" s="4">
@@ -2536,7 +2586,7 @@
       <c r="I41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2544,13 +2594,13 @@
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="4">
@@ -2568,7 +2618,7 @@
       <c r="I42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2576,13 +2626,13 @@
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="4">
@@ -2600,7 +2650,7 @@
       <c r="I43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2614,7 +2664,7 @@
       <c r="C44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="4">
@@ -2640,31 +2690,31 @@
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>2</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2672,13 +2722,13 @@
       <c r="A46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="8" t="s">
         <v>205</v>
       </c>
       <c r="E46" s="4">
@@ -2696,7 +2746,7 @@
       <c r="I46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="8" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2704,13 +2754,13 @@
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E47" s="4">
@@ -2736,13 +2786,13 @@
       <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>214</v>
       </c>
       <c r="E48" s="4">
@@ -2764,50 +2814,195 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6096E-3940-4FE2-BA70-B3DD02AFBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18407B-8CC6-4E09-A359-0B0E8B646274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
   <si>
     <t>seoul</t>
   </si>
@@ -793,6 +793,19 @@
   </si>
   <si>
     <t xml:space="preserve">다리아파서 계단은 가급적 피함, 근데 컴플레인없음 일잘함 </t>
+  </si>
+  <si>
+    <t>010-9905-7036</t>
+  </si>
+  <si>
+    <t>오규택</t>
+  </si>
+  <si>
+    <t>대구80자7729</t>
+  </si>
+  <si>
+    <t>완포가능, 완포는 안시켜봄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1226,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP57"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2880,55 +2893,71 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="4">
-        <v>3</v>
+      <c r="H51" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="4">
+        <v>3</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>224</v>
@@ -2944,7 +2973,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>224</v>
@@ -2959,8 +2988,8 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>222</v>
+      <c r="A55" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>224</v>
@@ -2975,8 +3004,8 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>223</v>
+      <c r="A56" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>224</v>
@@ -2992,9 +3021,11 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3004,6 +3035,20 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB18407B-8CC6-4E09-A359-0B0E8B646274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58B9D4D-DDCC-4C64-B833-24C2274C0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="246">
   <si>
     <t>seoul</t>
   </si>
@@ -805,6 +805,23 @@
   </si>
   <si>
     <t>완포가능, 완포는 안시켜봄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박길용</t>
+  </si>
+  <si>
+    <t>010-7389-0555</t>
+  </si>
+  <si>
+    <t>경기87사1703</t>
+  </si>
+  <si>
+    <t>반포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낫배드 23에 꽉차반포 고객과 양엘 잘처리함. 파주 고양쪽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1239,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2956,24 +2973,40 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>219</v>
+      <c r="A53" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>224</v>
@@ -2989,7 +3022,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>224</v>
@@ -3004,8 +3037,8 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>222</v>
+      <c r="A56" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>224</v>
@@ -3020,8 +3053,8 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>223</v>
+      <c r="A57" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>224</v>
@@ -3037,9 +3070,11 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3049,6 +3084,20 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58B9D4D-DDCC-4C64-B833-24C2274C0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FD58F-EE58-4068-AA76-AE84F44B7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="267">
   <si>
     <t>seoul</t>
   </si>
@@ -822,6 +822,74 @@
   </si>
   <si>
     <t>낫배드 23에 꽉차반포 고객과 양엘 잘처리함. 파주 고양쪽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손영석</t>
+  </si>
+  <si>
+    <t>010-5271-1205</t>
+  </si>
+  <si>
+    <t>서울91자5505</t>
+  </si>
+  <si>
+    <t>김한봉</t>
+  </si>
+  <si>
+    <t>010-6266-2424</t>
+  </si>
+  <si>
+    <t>서울88자2212</t>
+  </si>
+  <si>
+    <t>김기영</t>
+  </si>
+  <si>
+    <t>010-6623-0082</t>
+  </si>
+  <si>
+    <t>경기82사 5100</t>
+  </si>
+  <si>
+    <t>일반이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄기현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개미익스프레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4874-5241</t>
+  </si>
+  <si>
+    <t>수니네 이사 이사소장 5-6대 돈좀 주면 문제없이 다하는듯 일반이사랑 반포는 단가 안맞는듯</t>
+  </si>
+  <si>
+    <t>같이간 기사가 대참사건 났는데 일을 잘해서 다행이였다고함</t>
+  </si>
+  <si>
+    <t>경기권 반포장도 깔끔하게 잘하는 듯 리프트카임</t>
+  </si>
+  <si>
+    <t>춘천지역임. 강원도에서 붙어있는 경기도, 강원도 전역 가능 5톤, 사다리까지있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울89자3128</t>
+  </si>
+  <si>
+    <t>010-9000-6538</t>
+  </si>
+  <si>
+    <t>김동찬</t>
+  </si>
+  <si>
+    <t>서울 25 25 15 완포 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +944,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -926,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -937,19 +1018,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1256,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,34 +1364,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2"/>
@@ -1341,1762 +1428,1906 @@
       <c r="AP1" s="1"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>3.5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>1.4</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="7">
         <v>1.4</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="7">
         <v>2</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>1.4</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="7">
         <v>1.4</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="7">
         <v>10</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="7">
         <v>10</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="7">
         <v>2</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="7">
         <v>2</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="7">
         <v>1.4</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="F50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="7">
         <v>3</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="7">
+        <v>10</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I58" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J58" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FD58F-EE58-4068-AA76-AE84F44B7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B0A1F7-B71C-4AFB-A3D8-904269C93598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Moveuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B0A1F7-B71C-4AFB-A3D8-904269C93598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051DA43-7AF1-4F8B-9D13-C94226A171B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="271">
   <si>
     <t>seoul</t>
   </si>
@@ -890,6 +890,19 @@
   </si>
   <si>
     <t>서울 25 25 15 완포 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남90자9739</t>
+  </si>
+  <si>
+    <t>010-6512-6715</t>
+  </si>
+  <si>
+    <t>이영길</t>
+  </si>
+  <si>
+    <t>급하게도 맞춰줌. 고객이 늦은건데도 만족함 다행 우리형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3221,16 +3234,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E58" s="7">
         <v>1</v>
@@ -3239,37 +3252,53 @@
         <v>55</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>224</v>
@@ -3285,7 +3314,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>224</v>
@@ -3301,7 +3330,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>224</v>
@@ -3317,9 +3346,11 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3329,6 +3360,20 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
